--- a/entrega/planillas/Teoría Comunicación de Datos_huffman.xlsx
+++ b/entrega/planillas/Teoría Comunicación de Datos_huffman.xlsx
@@ -3736,10 +3736,10 @@
         <v>0.9914109305042377</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0004522800445556641</v>
+        <v>0.0008766651153564453</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00973057746887207</v>
+        <v>0.009516239166259766</v>
       </c>
     </row>
   </sheetData>
